--- a/Week 8/comparison.xlsx
+++ b/Week 8/comparison.xlsx
@@ -68,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,12 +89,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -189,19 +183,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,7 +203,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -217,7 +211,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -448,7 +442,7 @@
                   <c:v>0.9667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.9667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,7 +556,7 @@
                   <c:v>0.9722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.9694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,7 +670,7 @@
                   <c:v>0.9659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.9664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,7 +784,7 @@
                   <c:v>0.963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.9667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,11 +792,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="6297861"/>
-        <c:axId val="6286724"/>
+        <c:axId val="82595469"/>
+        <c:axId val="3610699"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6297861"/>
+        <c:axId val="82595469"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +864,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6286724"/>
+        <c:crossAx val="3610699"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -878,7 +872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6286724"/>
+        <c:axId val="3610699"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -955,7 +949,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6297861"/>
+        <c:crossAx val="82595469"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1018,9 +1012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>16920</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1029,7 +1023,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="1294920"/>
-        <a:ext cx="5288760" cy="3794040"/>
+        <a:ext cx="5288400" cy="3793680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1156,7 +1150,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1284,16 +1278,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>1</v>
+        <v>0.9667</v>
       </c>
       <c r="D7" s="9" t="n">
-        <v>1</v>
+        <v>0.9694</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>1</v>
+        <v>0.9664</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>1</v>
+        <v>0.9667</v>
       </c>
     </row>
   </sheetData>

--- a/Week 8/comparison.xlsx
+++ b/Week 8/comparison.xlsx
@@ -442,7 +442,7 @@
                   <c:v>0.9667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9667</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,7 +556,7 @@
                   <c:v>0.9722</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9694</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,7 +670,7 @@
                   <c:v>0.9659</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9664</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,7 +784,7 @@
                   <c:v>0.963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9667</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,11 +792,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="82595469"/>
-        <c:axId val="3610699"/>
+        <c:axId val="47510315"/>
+        <c:axId val="16444316"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82595469"/>
+        <c:axId val="47510315"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +864,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3610699"/>
+        <c:crossAx val="16444316"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -872,7 +872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3610699"/>
+        <c:axId val="16444316"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +949,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82595469"/>
+        <c:crossAx val="47510315"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1012,9 +1012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>16200</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1023,7 +1023,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="1294920"/>
-        <a:ext cx="5288400" cy="3793680"/>
+        <a:ext cx="5288040" cy="3793320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1278,16 +1278,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9" t="n">
-        <v>0.9694</v>
+        <v>1</v>
       </c>
       <c r="E7" s="9" t="n">
-        <v>0.9664</v>
+        <v>1</v>
       </c>
       <c r="F7" s="9" t="n">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
